--- a/data/trans_orig/P04D$aparatos-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04D$aparatos-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7A2CD43-5643-4BF9-98FE-9D3521D6F843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4408FC76-2898-400E-821C-08F5EEA1098E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2D6EAC8-3631-43E3-B616-330629F37BD7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D090FCFB-00A4-40CA-A204-3504BFE6B114}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="719">
-  <si>
-    <t>Población según el tipo de calefacción que tiene en su vivienda en 2012</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="804">
+  <si>
+    <t>Población según el tipo de calefacción que tiene en su vivienda (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -61,7 +61,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Aparatos</t>
@@ -184,7 +184,7 @@
     <t>5,87%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>62,18%</t>
@@ -295,7 +295,7 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>62,41%</t>
@@ -403,7 +403,7 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>61,64%</t>
@@ -508,7 +508,7 @@
     <t>5,65%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>62,61%</t>
@@ -616,1585 +616,1840 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de calefacción que tiene en su vivienda (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>33,86%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de calefacción que tiene en su vivienda (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
   </si>
   <si>
     <t>67,42%</t>
   </si>
   <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>5,8%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tipo de calefacción que tiene en su vivienda en 2016</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>56,33%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>61,43%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>Población según el tipo de calefacción que tiene en su vivienda en 2023</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
   </si>
   <si>
     <t>8,26%</t>
   </si>
   <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
 </sst>
 </file>
@@ -2606,8 +2861,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7445D895-BAD0-4E02-AB77-67881CCABFA7}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF40EF4-5E7B-4CE8-B9FD-3CF47453D547}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3403,25 +3658,25 @@
         <v>203</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3430,31 +3685,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="E26" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3463,36 +3718,36 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="I27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
@@ -3546,16 +3801,16 @@
         <v>240</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3618,24 +3873,159 @@
         <v>259</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K31" s="7" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>261</v>
+      <c r="K35" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -3648,8 +4038,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB81452F-35F4-4D41-9F87-7C1D3295C479}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63800E0-7291-41F8-B3AA-A219CBB34C1D}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3665,7 +4055,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,31 +4126,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3775,22 +4165,22 @@
         <v>132</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>184</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>97</v>
@@ -3802,31 +4192,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3835,31 +4225,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3870,31 +4260,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3903,31 +4293,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>80</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3936,31 +4326,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>318</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3969,31 +4359,31 @@
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4004,31 +4394,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>123</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4040,28 +4430,28 @@
         <v>101</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>339</v>
+        <v>209</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4070,31 +4460,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4103,31 +4493,31 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4138,31 +4528,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4171,31 +4561,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4204,31 +4594,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4237,31 +4627,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4272,31 +4662,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4305,31 +4695,31 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>207</v>
+        <v>439</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>406</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -4338,31 +4728,31 @@
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -4371,31 +4761,31 @@
         <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -4406,31 +4796,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>424</v>
+        <v>459</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>425</v>
+        <v>460</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>428</v>
+        <v>463</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>429</v>
+        <v>129</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -4439,31 +4829,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>435</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>436</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>202</v>
+        <v>471</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>472</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -4472,31 +4862,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -4505,66 +4895,66 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>464</v>
+        <v>269</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>364</v>
+        <v>495</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -4573,31 +4963,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>306</v>
+        <v>498</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>467</v>
+        <v>208</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>373</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>469</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>98</v>
+        <v>500</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -4606,31 +4996,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>507</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>277</v>
+        <v>511</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>479</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -4639,45 +5029,180 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>326</v>
+        <v>515</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>261</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -4690,8 +5215,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747EEF5A-89AF-451A-86C5-BB68C9E309B0}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D66774-032A-492A-BE0A-9203F5CD82B9}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4707,7 +5232,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4778,31 +5303,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>497</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4811,31 +5336,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>498</v>
+        <v>560</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>502</v>
+        <v>221</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4844,31 +5369,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>454</v>
+        <v>572</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>416</v>
+        <v>574</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>511</v>
+        <v>575</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4877,31 +5402,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>513</v>
+        <v>577</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>514</v>
+        <v>566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>520</v>
+        <v>153</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>386</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4912,31 +5437,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>528</v>
+        <v>591</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>529</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4945,31 +5470,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>530</v>
+        <v>292</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>531</v>
+        <v>169</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>532</v>
+        <v>593</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>537</v>
+        <v>595</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>538</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4978,31 +5503,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>546</v>
+        <v>606</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>547</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5011,31 +5536,31 @@
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>548</v>
+        <v>608</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>549</v>
+        <v>609</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>551</v>
+        <v>611</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>552</v>
+        <v>612</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>553</v>
+        <v>613</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>554</v>
+        <v>614</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>555</v>
+        <v>615</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>556</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5046,31 +5571,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>233</v>
+        <v>617</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>557</v>
+        <v>618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>558</v>
+        <v>619</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>559</v>
+        <v>620</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>560</v>
+        <v>621</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>561</v>
+        <v>622</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>562</v>
+        <v>623</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>563</v>
+        <v>624</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>54</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5079,31 +5604,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>565</v>
+        <v>220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>566</v>
+        <v>627</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>567</v>
+        <v>628</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>568</v>
+        <v>629</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>569</v>
+        <v>630</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>570</v>
+        <v>631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>571</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5112,31 +5637,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>572</v>
+        <v>633</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>573</v>
+        <v>634</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>574</v>
+        <v>635</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>575</v>
+        <v>636</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>576</v>
+        <v>637</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>577</v>
+        <v>638</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>578</v>
+        <v>639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>579</v>
+        <v>640</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>580</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5145,31 +5670,31 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>454</v>
+        <v>642</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>582</v>
+        <v>644</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>583</v>
+        <v>645</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>585</v>
+        <v>647</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>586</v>
+        <v>648</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>587</v>
+        <v>649</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5180,31 +5705,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>589</v>
+        <v>651</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>591</v>
+        <v>653</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>592</v>
+        <v>654</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>593</v>
+        <v>655</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>594</v>
+        <v>656</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>595</v>
+        <v>657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>596</v>
+        <v>658</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>597</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5213,31 +5738,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>598</v>
+        <v>292</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>599</v>
+        <v>660</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>600</v>
+        <v>661</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>601</v>
+        <v>662</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>602</v>
+        <v>663</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>603</v>
+        <v>664</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>604</v>
+        <v>665</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>605</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5246,31 +5771,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>606</v>
+        <v>667</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>607</v>
+        <v>668</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>608</v>
+        <v>669</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>609</v>
+        <v>670</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>610</v>
+        <v>671</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>611</v>
+        <v>672</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>612</v>
+        <v>673</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>613</v>
+        <v>674</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>614</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5279,31 +5804,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>615</v>
+        <v>676</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>616</v>
+        <v>677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>617</v>
+        <v>678</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>618</v>
+        <v>679</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>507</v>
+        <v>680</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>619</v>
+        <v>681</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>620</v>
+        <v>682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>621</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>622</v>
+        <v>683</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5314,31 +5839,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>623</v>
+        <v>684</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>624</v>
+        <v>685</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>625</v>
+        <v>686</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>626</v>
+        <v>687</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>627</v>
+        <v>688</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>628</v>
+        <v>689</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>630</v>
+        <v>691</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>631</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5347,31 +5872,31 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>633</v>
+        <v>25</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5380,31 +5905,31 @@
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>638</v>
+        <v>699</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>639</v>
+        <v>700</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>640</v>
+        <v>701</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>641</v>
+        <v>702</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>454</v>
+        <v>703</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>642</v>
+        <v>704</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>643</v>
+        <v>705</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>644</v>
+        <v>706</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>645</v>
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5413,31 +5938,31 @@
         <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>646</v>
+        <v>708</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>647</v>
+        <v>709</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>648</v>
+        <v>710</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>650</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>652</v>
+        <v>712</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>519</v>
+        <v>713</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>653</v>
+        <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5448,31 +5973,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>654</v>
+        <v>715</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>655</v>
+        <v>716</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>656</v>
+        <v>717</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>657</v>
+        <v>718</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>658</v>
+        <v>684</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>659</v>
+        <v>719</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>660</v>
+        <v>720</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>661</v>
+        <v>721</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>662</v>
+        <v>722</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5481,31 +6006,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>663</v>
+        <v>723</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>664</v>
+        <v>724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>666</v>
+        <v>725</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>667</v>
+        <v>726</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>305</v>
+        <v>727</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>668</v>
+        <v>728</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>669</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -5514,31 +6039,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>670</v>
+        <v>730</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>671</v>
+        <v>583</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>672</v>
+        <v>731</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>673</v>
+        <v>603</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>675</v>
+        <v>733</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>676</v>
+        <v>734</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>678</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5547,66 +6072,66 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>679</v>
+        <v>737</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>680</v>
+        <v>188</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>681</v>
+        <v>738</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>682</v>
+        <v>729</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>683</v>
+        <v>132</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>684</v>
+        <v>516</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>685</v>
+        <v>739</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>687</v>
+        <v>740</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>688</v>
+        <v>741</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>689</v>
+        <v>742</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>690</v>
+        <v>743</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>691</v>
+        <v>744</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>692</v>
+        <v>745</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>693</v>
+        <v>746</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>694</v>
+        <v>747</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>695</v>
+        <v>748</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>696</v>
+        <v>749</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5615,31 +6140,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>697</v>
+        <v>750</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>700</v>
+        <v>752</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>701</v>
+        <v>753</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>702</v>
+        <v>39</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>634</v>
+        <v>19</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>84</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>703</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5648,31 +6173,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>704</v>
+        <v>755</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>706</v>
+        <v>757</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>286</v>
+        <v>758</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>707</v>
+        <v>759</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>708</v>
+        <v>361</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>539</v>
+        <v>760</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>709</v>
+        <v>761</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>710</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5681,45 +6206,180 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>712</v>
+        <v>763</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>713</v>
+        <v>764</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>714</v>
+        <v>765</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>715</v>
+        <v>766</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>585</v>
+        <v>767</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>716</v>
+        <v>768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>717</v>
+        <v>769</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>718</v>
+        <v>770</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>261</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
